--- a/DOWNLOADS/EDITAIS/U_930593_E_900382025_07-10-2025_09h00m/U_930593_E_900382025_07-10-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_930593_E_900382025_07-10-2025_09h00m/U_930593_E_900382025_07-10-2025_09h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="95">
   <si>
     <t>Nº</t>
   </si>
@@ -259,109 +259,37 @@
     <t>Televisor Televisor Tamanho Tela: 43POL, Voltagem: BivoltV, Características Adicionais: Entradas Hdmi, Usb, Bluetooth, Wifi, Tipo Tela: Led, Acessórios: Controle Remoto</t>
   </si>
   <si>
-    <t>APARELHO DE TELEFONE SEM FIO Aparelho telefônico sem fio, com as seguintes características mínimas: 1) tecnologia dect 6.0; 2) com identificador de chamadas; 3) tecla na base para localização do monofone (tecla page); 4) teclas: 4.1) mudo; 4.2) flash; e, 4.3) rediscagem; 5) com, no mínimo, 02 volumes de campainha; 6) com indicador de carga da bateria; 7) duração da bateria: no mínimo 4 horas de conversação ou 72 horas em stand-by; 8) voltagem: bivolt; 9) aparelho com certificação pela anatel (indicada através de selo de certificação);</t>
-  </si>
-  <si>
-    <t>APARELHO TELEFÔNICO FIXO Telefone com fio. Identificador de chamada. Função flash. Função redial. Controle de volume da campainha. Uso em mesa ou parede. Cor cinza</t>
-  </si>
-  <si>
-    <t>ASPIRADOR DE PÓ E LÍQUIDOS TIPO PROFISSIONAL Aspira a sólidos e líquidos. Filtro com alta eficiência em retenção de partículas. Potência 1.200 W. Capacidade mínima do reservatório: 40 litros. Pressão mínima de vácuo: Aproximadamente 13,8 k Pa - 138 mbar. Deve Acompanhar Acessórios: 1 mangueira de sucção flexível, 2 tubos de extensão, 1 bico de canto, 1 bico multiuso, 1 saco de pano lavável e reutilizável, 1 bico e escova de canto.</t>
-  </si>
-  <si>
-    <t>CAFETEIRA ELÉTRICA Capacidade mínima 12-15 xícaras; Placa de aquecimento; indicador de nível de água e filtro permanente removível e lavável. Lâmpada piloto. Reservatório de água com graduação. Deve acompanhar colher dosadora e Jarra inquebrável aço escovado; Cor branca ou preta; Voltagem: 110v ou bivolt;</t>
-  </si>
-  <si>
-    <t>CAIXA DE SOM BLUETOOTH PORTÁTIL. Potência mínima 20 Watts. Autonomia mínima da bateria 12 horas. Conector de entrada USB. Alimentação: bateria recarregável. Bluetooth versão 5.0 mínimo, USB tipo C, botão para controle de volume. Impermeável, resistência à água IPX7. Bivolt automático.</t>
-  </si>
-  <si>
-    <t>CAIXA DE SOM BLUETOOTH PORTÁTIL COM MICROFONE Potência mínima 250 W. Autonomia mínima da bateria 12 horas. Conector de entrada USB. Alimentação: bateria recarregável mínimo 4.000 Miliampéres. Reprodução MP3, WMA. Bluetooth versão 5.0 mínimo. Entrada para microfone com controle de volume. Bivolt automático.</t>
-  </si>
-  <si>
-    <t>ENCERADEIRA E LAVADORA DE PISO INDUSTRIAL COMPLETA Tamanho 350 mm de diâmetro. Cabo elétrico de 12 metros no mínimo. Motor ¾ HP. Sistema de travamento através de pedal. Semi automática. Baixo nível de ruído. Bivolt. Acompanha: 1 suporte de disco 350 mm; 1 escova para lavagem de pisos rústicos; 1 disco especial de para lavar; 1 disco especial de lustrar. Certificado INMETRO.</t>
-  </si>
-  <si>
-    <t>ESCADA DE 4 DEGRAUS Confeccionada em alumínio; 4 degraus; dobrável; uso doméstico.</t>
-  </si>
-  <si>
-    <t>ESCADA DE 7 DEGRAUS Confeccionada em alumínio; 7 degraus; dobrável; uso doméstico.</t>
-  </si>
-  <si>
-    <t>FREEZER HORIZONTAL Uma porta. Capacidade mínima de 300 litros. Voltagem 110 ou 220 volts. Classificação energética Inmetro A. Cor branca.</t>
-  </si>
-  <si>
-    <t>FREEZER VERTICAL Uma porta. Capacidade mínima de 240 litros. Voltagem 110 ou 220 volts. Classificação energética Inmetro A. Cor branca.</t>
-  </si>
-  <si>
-    <t>FRIGOBAR Completo. Uma porta. Capacidade mínima de 80 litros.Pés niveladores, porta - latas e compartimentos para organização. Voltagem 110 e/ou 220 volts. Classificação energética Inmetro A. Cor branca.</t>
-  </si>
-  <si>
-    <t>HEADSET PARA CONEXÃO EM BASE DISCADORAS. Amplificadores Telefônicos ou diretamente em Terminais Telefônicos. Design ergonômico; Microfone embutido com filtro acústico; Microfone com cancelamento de ruído e haste flexível; Tiara ajustável em aço inox revestido com material isolante; protetor em Courino hipoalergênico; Proteção eletrônica contra choques acústicos; Cabo com conector USB</t>
-  </si>
-  <si>
-    <t>IMPRESSORA TÉRMICA PARA ETIQUETAS ADESIVAS. Tecnologia de impressão térmica direta; Resolução mínima de impressão 203 dpi (pontos por polegada); Velocidade mínima de impressão 152 mm por segundo; Largura máxima de impressão 104 mm; Largura da mídia (etiqueta) entre 25 mm e 112 mm; Comprimento máximo de impressão até 990 mm; Diâmetro máximo do rolo de mídia até 127 mm; Tipo de mídia suportada etiquetas contínuas, com gap, com marca preta ou perfuradas; Espessura da mídia de 0,08 mm a 0,18 mm; Sensores: Sensor transmissivo (gap) e sensor reflexivo (marca preta); Comunicações USB e Ethernet de fábrica; Memória mínima interna 128 MB SDRAM e 128 MB Flash; Compatibilidade com linguagens de impressão ZPL, EPL ou similares; Compatível com sistemas operacionais Windows, Linux e macOS; Fonte de alimentação Bivolt automático (100V a 240V); Gabinete em plástico de alta resistência, com tampa basculante para fácil reposição da mídia; Condições de operação temperatura de 5°C a 40°C e umidade de 10% a 90% (sem condensação) ; Certificações mínimas CE, FCC, UL ou equivalentes; Itens que devem acompanhar o equipamento: cabo de força, fonte de alimentação, cabo USB, guia rápido ou manual do usuário em português, Link ou mídia com drivers atualizados. Observações adicionais: o equipamento deverá ser entregue totalmente funcional e compatível com etiquetas adesivas térmicas padrão de 100 mm x 150 mm. A proposta deverá conter catálogo técnico do equipamento ofertado e declaração de conformidade com as exigências mínimas do edital. Garantia mínima de 12 meses. Equipamento novo.</t>
-  </si>
-  <si>
-    <t>LAVADORA DE ALTA PRESSÃO Voltagem 110v: potência da lavadora de alta pressão 1.400 a 1.650 w/; pressão máxima de saída de água da lavadora de alta pressão 1.500 a 1.650 psi; vazão da lavadora de alta pressão: 330 litros/hora – 5,5 litros/min; sistema de desligamento da lavadora de alta pressão: automático; tipo de motor da lavadora de alta pressão: universal; comprimento da mangueira de alta pressão da lavadora: 5,00m; comprimento do cordão elétrico: 5,00m; tipo de bico: regulável;</t>
-  </si>
-  <si>
-    <t>LEITOR DE CÓDIGO DE BARRAS DE MÃO COM FIO Leitura padrão de códigos 1D e 2D; Capacidade de decodificação Code 39, Code 93, Code 128, UPC/EAN, Code 2 of 5, Code 11, Codabar, MSI Plessey, GS1 DataBar, QRCode, Data Matrix; Tolerância a movimento de mão de pelo menos 13 cm/s para 13 mil UPC; Campo de visão (ângulo) de pelo menos 42º Horizontal / 30º Vertical; Deverá possui BIP sonoro de leitura com tom e volume ajustáveis; Possuir indicador de decodificação em LEDs; Interface USB 2.0, RS-232, Teclado Wedge; Modo de operação manual ou automático; Suporte para leitura sem as mãos; Classificação mínima de grau de proteção IP42 informada pelo fabricante do equipamento; Resistência a 30 quedas de pelo menos 1,5m, comprovado pelo fabricante; Temperatura de Operação de 0 a 40ºC; Fornecimento de todos os acessórios para o seu pleno funcionamento, incluindo cabos, suportes, softwares e drivers necessários;</t>
-  </si>
-  <si>
-    <t>LEITOR DE CÓDIGO DE BARRAS DE MÃO SEM FIO Leitura padrão de códigos 1D e 2D; Capacidade de decodificação Code 39, Code 93, Code 128, UPC/EAN, Code 2 of 5, Code 11, Codabar, MSI Plessey, GS1 DataBar, QRCode, Data Matrix; Tolerância a movimento de mão de pelo menos 13 cm/s para 13 mil UPC; Campo de visão (ângulo) de pelo menos 32º Horizontal / 24º Vertical; e) Deverá possui BIP sonoro de leitura com tom e volume ajustáveis; Possuir indicador de decodificação em LEDs; Interface USB 2.0, RS-232, Teclado Wedge; Bluetooth versão 4.0 no mínimo; Emparelhamento para uso em qualquer computador, tablet ou smarthphone habilitado para bluetooth; Capacidade de alcance do leitor de pelo menos 10m da base, informado em documentação oficial do fabricante do equipamento; Bateria para no mínimo 80 horas de operação com carga total; Deverá carregar totalmente a bateria em no máximo 5 horas; Classificação mínima de grau de proteção IP42 informada pelo fabricante do equipamento; Resistência a múltiplas quedas de pelo menos 1,5m, comprovado pelo fabricante; Temperatura de Operação de 0 a 40ºC; Fornecimento de todos os acessórios para o seu pleno funcionamento, incluindo cabos, suportes, softwares e drivers necessários;</t>
-  </si>
-  <si>
-    <t>LEITOR DE CÓDIGO DE BARRAS FIXO DE MESA/BALCÃO. Leitura padrão de códigos 1D e 2D; Capacidade de decodificação Code 39, Code 93, Code 128, UPC/EAN, Code 2 of 5, Code 11, Codabar, MSI Plessey, GS1 DataBar, QRCode, Data Matrix; Velocidade de leitura de pelo menos 100 leituras/seg; Deverá possui BIP sonoro de leitura; Interface USB 2.0, RS-232, Teclado Wedge; Checkpoint EAS; Possibilitar a instalação de scanner auxiliar; Classificação mínima de grau de proteção IP42 informada pelo fabricante do equipamento; Temperatura de Operação de 0 a 40ºC; Fornecimento de todos os acessórios para o seu pleno funcionamento, incluindo cabos, softwares e drivers necessários;</t>
-  </si>
-  <si>
-    <t>MICROONDAS. Com prato giratório – Voltagem: 110v ou bivolt – capacidade mínima: 31 litros. Com trava de segurança – Luz interna – Display – Relógio – Timer – Descongelamento. Níveis de potência. Selo PROCEL ou Selo INMETRO Categoria: A. Cor branca.</t>
-  </si>
-  <si>
-    <t>PROJETOR MULTIMÍDIA BÁSICO Resolução XGA nativa de 1024x768; Luminosidade mínima de 3.500 lumens; Formato de tela 4:3 nativo e compatível com 16:9; Duração aproximada da lâmpada de 6.000 horas em modo normal; Tamanho da projeção da imagem de 300”; Contraste mínimo de 15.000:1; Entradas: Vídeo Composto, VGA, Audio, HDMI, USB; Compatível com sistema de cor NTSC, PAL, SECAM; Correção de trapézio vertical e horizontal de +/- 30 graus; Ajuste físico de inclinação frontal e lateral; Possuir alto falante embutido; Alimentação bivolt; Permitir instalação em mesa ou teto; Possui menu na tela em Português Brasileiro; Controle remoto com bateria inclusa; Cor predominante preta, branca ou prata; O equipamento deverá ser entregue com todos os cabos (energia padrão brasileiro, vga e hdmi inclusos) e manuais de operação; Acompanhar maleta apropriada para transporte;</t>
-  </si>
-  <si>
-    <t>PURIFICADOR DE ÁGUA REFRIGERADO Purificador de água, para instalação em parede ou bancada. Fornecimento de água a temperatura natural e gelada. Pingadeira removível e botão de acionamento giratório, ou de toque ou alavanca. Refil troca fácil; Filtro de carvão ativado e polipropileno; Bivolt.</t>
-  </si>
-  <si>
-    <t>SUPORTE PARA TV DE LED Confeccionado em aço carbono, compatível com aparelhos de 28 a 65 " articulado pintura epóxi eletrostática preta peso sustentado até 409 kg, local de instalação parede, fixação universal.</t>
-  </si>
-  <si>
-    <t>TELA ELÉTRICA DE PROJEÇÃO MULTIMÍDIA Material estrutura: alumínio Ajuste tela: elétrico, retrátil com controle remoto; tensionado. Acabamento: pintura eletrostática; Tela de projeção: tecido matt white; Fixação no teto; Cor: branca; sensor de corrente digital; Alimentação 110,220 v; Tamanho tela: 72 polegadas ou acima;</t>
-  </si>
-  <si>
-    <t>TELEVISOR SMART TV – TELA DE LED/LCD 65” WIDE FULL HD Smart TV LED / LCD com sistema integrado, Resolução em Full HD (1920 x 1080) ou superior alto falante integrados. Conectividade: . Wi-Fi integrado, Bluetooth. · Entradas HDMI: 2 a 3 portas · Entradas USB: 1 a 2 portas . Saída de áudio digital . Porta Ethernet (RJ45) Recursos adicionais: · Compatibilidade com assistentes virtuais (Google Assistente, Alexa etc.). · Espelhamento de tela (Screen Mirroring / Miracast) Controle remoto com acesso a aplicativos. Bivolt.</t>
-  </si>
-  <si>
-    <t>VENTILADOR DE COLUNA Ventilador de coluna turbo, com no mínimo 6 pás, 3 velocidades, sem ruídos, com altura regulável, potência mínima de 120w, 110v ou 220v. Voltagem a definir no momento da compra.</t>
-  </si>
-  <si>
-    <t>BALANÇA DIGITAL DE PRECISÃO. Capacidade de até 5 ou 10kg. Alimentação a pilha. Cor branca</t>
-  </si>
-  <si>
-    <t>LIQUIDIFICADOR INDUSTRIAL, alta rotação, 2 litros, voltagem 110V, material do jarro inox.</t>
-  </si>
-  <si>
-    <t>ESPREMEDOR DE FRUTAS INDUSTRIAL, com corpo em aço inox, caçamba e tampa em alumínio, voltagem 110V ou bivolt, potência 500w</t>
-  </si>
-  <si>
-    <t>FORNO ELÉTRICO DE BANCADA, 44- 50 litros, voltagem 110V, cor branca, prata ou preta. Com função douradora, termostato e temporizador. Resistências superior e inferior. Classificação energética Inmetro A.</t>
-  </si>
-  <si>
-    <t>FOGÃO DE BANCADA. Modelo tipo Cooktop com 1 queimador por indução. Portátil. Alimentação elétrica. Voltagem 110V. Plataforma em vidro/cerâmica, cor preta. Com vários níveis de potência. Classificação energética Inmetro A.</t>
-  </si>
-  <si>
-    <t>FOGÃO DE BANCADA Modelo tipo Cooktop com 4 queimadores por indução. Alimentação elétrica. Voltagem 220V. Plataforma em vidro/cerâmica, cor preta. Com vários níveis de potência. Classificação energética Inmetro A.</t>
-  </si>
-  <si>
-    <t>FOGÃO A GÁS. Acendimento automático total, luz de forno. Acendimento em 6 bocas. Tampa em vidro. Mesa em aço inox. Tensão 110 à 240 volts. Cor branca. Classificação energética Inmetro A.</t>
-  </si>
-  <si>
-    <t>BEBEDOURO INDUSTRIAL DE COLUNA 25 LITROS Corpo e estrutura em aço inox. Tampa e pés reguláveis de plástico; aparador de água (pingadeira) em aço Inox, serpentina em aço inox, reservatório em polipropileno atóxico; Isolamento térmico em EPS; Boia Controladora do nível de água; Termostato com 7 níveis para controle de temperatura; Gás ecológico; refrigerado por compressor que garante maior eficiência; Motor Elgin 1/12+ hp 127v (1,5A) 190W OU 220v (0,80A) 60Hz-180W. Voltagem 110 ou 220 v a depender da necessidade.</t>
-  </si>
-  <si>
-    <t>REFRIGERADOR FROST FREE Duas portas. Capacidade mínima de 340 litros. Voltagem 110 e/ou 220 volts. Classificação energética Inmetro A. Cor branca.</t>
-  </si>
-  <si>
-    <t>TELEVISOR SMART TV – TELA DE LED/LCD 43” WIDE FULL HD Smart TV LED / LCD com sistema integrado, Resolução em Full HD (1920 x 1080) ou superior alto falante integrados. Conectividade: · Wi-Fi integrado, Bluetooth. . Entradas HDMI: 2 a 3 portas · Entradas USB: 1 a 2 portas· . Saída de áudio digital· . Porta Ethernet (RJ45) Recursos adicionais: · Compatibilidade com assistentes virtuais (Google Assistente, Alexa etc.). · Espelhamento de tela (Screen Mirroring / Miracast) Controle remoto com acesso a aplicativos. Bivolt.</t>
+    <t>Caixa acústica Caixa Acústica Potência: 20W, Resposta Freqüência: 65 Hz A 20 KhzKHZ, Largura: 70MM, Altura: 180MM, Profundidade: 80MM, Cor: Preta, Características Adicionais: Bluetooth, Usb, Á Prova Dágua, Voltagem: 110/220V, Material: Abs</t>
+  </si>
+  <si>
+    <t>Enceradeira Enceradeira Tipo: Industrial, Potência Motor: 0,75HP, Tipo Motor: Monofásico, Tensão Alimentação: 220V, Diâmetro Escova: 350MM, Características Adicionais: Escova De Pelo, Suporte Madeira E Lixa</t>
+  </si>
+  <si>
+    <t>Telefone cabeça Telefone Cabeça Tipo: Sem Fio E Microfone Na Tiara, Composição: Base / Teclado E Tiara, Tipo Alimentação: 110 V, Adaptador Energia Ac, Tipo Acionamento: Chave Liga/Desliga Com Led, Características Adicionais: Frequência De Operação De 2.4 Ghz, Headset Conver-</t>
+  </si>
+  <si>
+    <t>Lavadora alta pressão Lavadora Alta Pressão Tipo: Lava-Jato, Modelo: Monofásico, Tensão: 110/220V, Vazão: 300L/H, Pressão: 1800PSI, Características Adicionais: Rodas, Gatilho Auto-Desligável, Misturador, Piston-</t>
+  </si>
+  <si>
+    <t>Leitora código barra Leitora Código Barra Tensão Alimentação: 5VDC, Peso: 149G, Comprimento: 198MM, Largura: 45MM, Altura: 40MM, Configuração Code: Até 128 Mb, Varredura: Feixe De Luz Com Díodo Laser De 670NM, Conexão: Teclado Pc, Rs232,Usb, Tipo Acionamento: Gatilho, Tamanho Janela Leitura: 5 Mils, Velocidade Leitura: 80 Varreduras Por Segundo (Mínimo), Potência: 0,96 Mw, Comprimento Cabo: 2,7 M, Características Adicionais: Profundidade 0 A 203 Mm, Roll, Pitch/Sinal Sonoro</t>
+  </si>
+  <si>
+    <t>(ser carrinho para mesbla elétrica suporte para tela TV</t>
+  </si>
+  <si>
+    <t>Ventilador de coluna</t>
+  </si>
+  <si>
+    <t>Televisao , próxima reposta 65</t>
+  </si>
+  <si>
+    <t>Liquidificador industrial</t>
+  </si>
+  <si>
+    <t>Esmedor industrial</t>
+  </si>
+  <si>
+    <t>Esmedor para frutas (embora seu nome acus conhecida de esprmedor</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -771,7 +699,7 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>50</v>
@@ -783,13 +711,13 @@
         <v>11649</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -800,7 +728,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>50</v>
@@ -812,13 +740,13 @@
         <v>5491</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -829,7 +757,7 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -841,13 +769,13 @@
         <v>12299.85</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -858,7 +786,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -870,13 +798,13 @@
         <v>5697.900000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -887,7 +815,7 @@
         <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -899,13 +827,13 @@
         <v>6567.4</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -916,7 +844,7 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -928,13 +856,13 @@
         <v>5125.599999999999</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -945,7 +873,7 @@
         <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -957,13 +885,13 @@
         <v>31142.2</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -974,7 +902,7 @@
         <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <v>25</v>
@@ -986,13 +914,13 @@
         <v>5376.25</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1003,7 +931,7 @@
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="D10">
         <v>25</v>
@@ -1015,13 +943,13 @@
         <v>7954.25</v>
       </c>
       <c r="G10" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H10" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1032,7 +960,7 @@
         <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1044,13 +972,13 @@
         <v>29346.1</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H11" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1061,7 +989,7 @@
         <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1073,13 +1001,13 @@
         <v>30170.8</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1090,7 +1018,7 @@
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -1102,13 +1030,13 @@
         <v>7495.45</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1119,7 +1047,7 @@
         <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D14">
         <v>15</v>
@@ -1131,13 +1059,13 @@
         <v>3510.6</v>
       </c>
       <c r="G14" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1148,7 +1076,7 @@
         <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="D15">
         <v>30</v>
@@ -1160,13 +1088,13 @@
         <v>47936.1</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I15" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1177,7 +1105,7 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D16">
         <v>20</v>
@@ -1189,13 +1117,13 @@
         <v>15090</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I16" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1206,7 +1134,7 @@
         <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D17">
         <v>100</v>
@@ -1218,13 +1146,13 @@
         <v>50684</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I17" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1235,7 +1163,7 @@
         <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="D18">
         <v>50</v>
@@ -1247,13 +1175,13 @@
         <v>23948.5</v>
       </c>
       <c r="G18" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1264,7 +1192,7 @@
         <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D19">
         <v>50</v>
@@ -1276,13 +1204,13 @@
         <v>67716.5</v>
       </c>
       <c r="G19" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1293,7 +1221,7 @@
         <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="D20">
         <v>45</v>
@@ -1305,13 +1233,13 @@
         <v>33508.8</v>
       </c>
       <c r="G20" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I20" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1322,7 +1250,7 @@
         <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="D21">
         <v>15</v>
@@ -1334,13 +1262,13 @@
         <v>61487.84999999999</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I21" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1351,7 +1279,7 @@
         <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="D22">
         <v>10</v>
@@ -1363,13 +1291,13 @@
         <v>6866.7</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1380,7 +1308,7 @@
         <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="D23">
         <v>75</v>
@@ -1392,13 +1320,13 @@
         <v>13917</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1409,7 +1337,7 @@
         <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D24">
         <v>5</v>
@@ -1421,13 +1349,13 @@
         <v>9414.450000000001</v>
       </c>
       <c r="G24" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1438,7 +1366,7 @@
         <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -1450,13 +1378,13 @@
         <v>37523.8</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1467,7 +1395,7 @@
         <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D26">
         <v>15</v>
@@ -1479,13 +1407,13 @@
         <v>3698.25</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I26" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1496,7 +1424,7 @@
         <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -1508,13 +1436,13 @@
         <v>186.3</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1525,7 +1453,7 @@
         <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -1537,13 +1465,13 @@
         <v>3316</v>
       </c>
       <c r="G28" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I28" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1554,7 +1482,7 @@
         <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -1566,13 +1494,13 @@
         <v>2223.8</v>
       </c>
       <c r="G29" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I29" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1582,9 +1510,6 @@
       <c r="B30" t="s">
         <v>74</v>
       </c>
-      <c r="C30" t="s">
-        <v>109</v>
-      </c>
       <c r="D30">
         <v>5</v>
       </c>
@@ -1595,13 +1520,13 @@
         <v>3727.8</v>
       </c>
       <c r="G30" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1611,9 +1536,6 @@
       <c r="B31" t="s">
         <v>75</v>
       </c>
-      <c r="C31" t="s">
-        <v>110</v>
-      </c>
       <c r="D31">
         <v>5</v>
       </c>
@@ -1624,13 +1546,13 @@
         <v>2771.4</v>
       </c>
       <c r="G31" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1640,9 +1562,6 @@
       <c r="B32" t="s">
         <v>76</v>
       </c>
-      <c r="C32" t="s">
-        <v>111</v>
-      </c>
       <c r="D32">
         <v>5</v>
       </c>
@@ -1653,13 +1572,13 @@
         <v>10044.45</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I32" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1669,9 +1588,6 @@
       <c r="B33" t="s">
         <v>77</v>
       </c>
-      <c r="C33" t="s">
-        <v>112</v>
-      </c>
       <c r="D33">
         <v>5</v>
       </c>
@@ -1682,13 +1598,13 @@
         <v>6961.35</v>
       </c>
       <c r="G33" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I33" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1698,9 +1614,6 @@
       <c r="B34" t="s">
         <v>78</v>
       </c>
-      <c r="C34" t="s">
-        <v>113</v>
-      </c>
       <c r="D34">
         <v>38</v>
       </c>
@@ -1711,13 +1624,13 @@
         <v>77788.66</v>
       </c>
       <c r="G34" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1727,9 +1640,6 @@
       <c r="B35" t="s">
         <v>78</v>
       </c>
-      <c r="C35" t="s">
-        <v>113</v>
-      </c>
       <c r="D35">
         <v>12</v>
       </c>
@@ -1740,13 +1650,13 @@
         <v>24564.84</v>
       </c>
       <c r="G35" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I35" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1756,9 +1666,6 @@
       <c r="B36" t="s">
         <v>79</v>
       </c>
-      <c r="C36" t="s">
-        <v>114</v>
-      </c>
       <c r="D36">
         <v>30</v>
       </c>
@@ -1769,13 +1676,13 @@
         <v>108468.6</v>
       </c>
       <c r="G36" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I36" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1785,9 +1692,6 @@
       <c r="B37" t="s">
         <v>79</v>
       </c>
-      <c r="C37" t="s">
-        <v>114</v>
-      </c>
       <c r="D37">
         <v>10</v>
       </c>
@@ -1798,13 +1702,13 @@
         <v>36156.2</v>
       </c>
       <c r="G37" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I37" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1814,9 +1718,6 @@
       <c r="B38" t="s">
         <v>80</v>
       </c>
-      <c r="C38" t="s">
-        <v>115</v>
-      </c>
       <c r="D38">
         <v>57</v>
       </c>
@@ -1827,13 +1728,13 @@
         <v>104744.34</v>
       </c>
       <c r="G38" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I38" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1843,9 +1744,6 @@
       <c r="B39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" t="s">
-        <v>115</v>
-      </c>
       <c r="D39">
         <v>18</v>
       </c>
@@ -1856,13 +1754,13 @@
         <v>33077.16</v>
       </c>
       <c r="G39" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I39" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
